--- a/Unity_Portfolio/Assets/08.Tables/EquipmentItemTable.xlsx
+++ b/Unity_Portfolio/Assets/08.Tables/EquipmentItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\Unity_Portfolio\Unity_Portfolio\Assets\08.Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4A86F4-7CB5-42B9-BCF0-DD9CDA5AEC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8CD4B-A561-4140-855F-127ECD1C2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1455" windowWidth="28800" windowHeight="18255" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,7 +653,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>30001</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>10</v>
+        <v>30010</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>11</v>
+        <v>30011</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>20</v>
+        <v>30020</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>21</v>
+        <v>30021</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>30</v>
+        <v>30030</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>31</v>
+        <v>30031</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>40</v>
+        <v>30040</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>41</v>
+        <v>30041</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>

--- a/Unity_Portfolio/Assets/08.Tables/EquipmentItemTable.xlsx
+++ b/Unity_Portfolio/Assets/08.Tables/EquipmentItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\Unity_Portfolio\Unity_Portfolio\Assets\08.Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8CD4B-A561-4140-855F-127ECD1C2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC79B047-E8C6-48A5-9131-571FBBF354C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResourceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explanation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WoodenSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_WoodenSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_IronSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WoodenShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_WoodenShield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_IronShield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeatherHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_LeatherHelmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronHelmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_IronHelmet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeatherArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_LeatherArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_IronArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeatherShoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_LeatherShoes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,11 +170,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IronShoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_Explanation_IronShoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpritePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/IronSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/IronShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/WoodenSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/WoodenShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/LeatherHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/IronHelmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/LeatherArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/IronArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/LeatherShoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load/Texture/Item/Equip/IronShoes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,13 +649,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -706,13 +702,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -720,16 +716,16 @@
         <v>30000</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -746,16 +742,16 @@
         <v>30001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -772,16 +768,16 @@
         <v>30010</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -798,16 +794,16 @@
         <v>30011</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -824,16 +820,16 @@
         <v>30020</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3">
         <v>500</v>
@@ -850,16 +846,16 @@
         <v>30021</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
@@ -876,16 +872,16 @@
         <v>30030</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
@@ -902,16 +898,16 @@
         <v>30031</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -928,16 +924,16 @@
         <v>30040</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>50</v>
@@ -954,16 +950,16 @@
         <v>30041</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
